--- a/semitask/Compare.xlsx
+++ b/semitask/Compare.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Egyetem\ParAlgh\beadando\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Egyetem\ParAlgh\semitask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC96CA5-76F9-4C82-A2E5-3D6CCAFAE894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F27D7FA-C94C-4D1F-A03A-316371C1AB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{BD6364F8-FF52-46D5-8AAB-4BA42E0FB4E8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{BD6364F8-FF52-46D5-8AAB-4BA42E0FB4E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Compare" sheetId="2" r:id="rId1"/>
+    <sheet name="Sequential" sheetId="2" r:id="rId1"/>
     <sheet name="Posix" sheetId="3" r:id="rId2"/>
     <sheet name="OMP" sheetId="4" r:id="rId3"/>
     <sheet name="C#" sheetId="5" r:id="rId4"/>
+    <sheet name="C#_2" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
   <si>
     <t>Random 21-es számok</t>
   </si>
@@ -47,7 +48,13 @@
     <t>Idő</t>
   </si>
   <si>
-    <t>Szálk száma</t>
+    <t>Random 21-es sorozatok</t>
+  </si>
+  <si>
+    <t>Szálak száma</t>
+  </si>
+  <si>
+    <t>az értékeket -10 és 10 között generálom</t>
   </si>
 </sst>
 </file>
@@ -107,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -124,6 +131,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -243,7 +261,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Compare!$A$2:$A$13</c:f>
+              <c:f>Sequential!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -288,7 +306,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Compare!$B$2:$B$13</c:f>
+              <c:f>Sequential!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -339,7 +357,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -938,7 +955,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1704,7 +1720,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2470,7 +2485,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2571,6 +2585,774 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="290294752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="hu-HU"/>
+              <a:t>C# Futási</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="hu-HU" baseline="0"/>
+              <a:t> Idő</a:t>
+            </a:r>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'C#_2'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'C#_2'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.972</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8289999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.3849999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.923</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6880000000000006</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.981999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-4386-491E-9198-D407038DDCD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'C#_2'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'C#_2'!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1019999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6619999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.1020000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-4386-491E-9198-D407038DDCD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'C#_2'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'C#_2'!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.38600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.923</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3490000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3679999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-4386-491E-9198-D407038DDCD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'C#_2'!$A$3:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'C#_2'!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.248</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.82099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.716</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0453000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-4386-491E-9198-D407038DDCD9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="290294752"/>
+        <c:axId val="290305312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="290294752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="290305312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="290305312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="290294752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
@@ -2839,6 +3621,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
@@ -4544,6 +5366,574 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5275,6 +6665,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>196713</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>77857</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA54447E-C9EA-4B40-B972-ABF69170C01D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
@@ -5575,12 +7008,12 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23" style="6" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
@@ -5701,7 +7134,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -5712,213 +7145,213 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>4</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A3" s="9">
         <v>10000</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>2E-3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>1E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="9">
         <v>50000</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="9">
         <v>100000</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>0.188</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>0.06</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6" s="9">
         <v>150000</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>0.23599999999999999</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>0.189</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="9">
         <v>250000</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>0.30199999999999999</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>0.19</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="9">
         <v>500000</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>0.50800000000000001</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>0.307</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>0.183</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>0.13400000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="9">
         <v>750000</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>0.81200000000000006</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>0.44</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>0.27</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>0.184</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="A10" s="9">
         <v>1000000</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>1.073</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>0.59799999999999998</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>0.30399999999999999</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>0.21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="A11" s="9">
         <v>1500000</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>1.575</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>0.78300000000000003</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>0.48599999999999999</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>0.27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="A12" s="9">
         <v>5000000</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>4.5389999999999997</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>2.7250000000000001</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>1.54</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>1.0409999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="A13" s="9">
         <v>10000000</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>8.98</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>4.9939999999999998</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>2.92</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>1.9890000000000001</v>
       </c>
     </row>
@@ -5939,7 +7372,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -5949,214 +7382,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>4</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A3" s="9">
         <v>10000</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="9">
         <v>50000</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>2.3400000000000001E-2</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="9">
         <v>100000</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>0.125</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6" s="9">
         <v>150000</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>0.16400000000000001</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="9">
         <v>250000</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>0.308</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>0.11899999999999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>0.112</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="9">
         <v>500000</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>0.55900000000000005</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>0.248</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>0.17399999999999999</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>0.122</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="9">
         <v>750000</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>0.73599999999999999</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>0.36799999999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>0.245</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="A10" s="9">
         <v>1000000</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>0.96799999999999997</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>0.50600000000000001</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>0.31</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>0.191</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="A11" s="9">
         <v>1500000</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>1.472</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>0.78200000000000003</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>0.46100000000000002</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="A12" s="9">
         <v>5000000</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>4.5759999999999996</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>2.5289999999999999</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>1.4770000000000001</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>0.93100000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="A13" s="9">
         <v>10000000</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>8.5850000000000009</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>4.6890000000000001</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>2.7839999999999998</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>1.8029999999999999</v>
       </c>
     </row>
@@ -6177,8 +7611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69885C3A-C026-4BDD-9D32-B2F4D5ACA1E2}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -6188,214 +7622,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>2</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>4</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
+      <c r="A3" s="9">
         <v>10000</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <v>1.5100000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+      <c r="A4" s="9">
         <v>50000</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>0.13500000000000001</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>0.13100000000000001</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <v>5.6800000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+      <c r="A5" s="9">
         <v>100000</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>0.27039999999999997</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>0.14199999999999999</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <v>5.731E-2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+      <c r="A6" s="9">
         <v>150000</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>0.39329999999999998</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>0.28399999999999997</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>0.1258</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>8.48E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+      <c r="A7" s="9">
         <v>250000</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>0.72740000000000005</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>0.39</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>0.18490000000000001</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <v>0.12889999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+      <c r="A8" s="9">
         <v>500000</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>1.3879999999999999</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>0.66100000000000003</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>0.37780000000000002</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <v>0.24199999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+      <c r="A9" s="9">
         <v>750000</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>2.0070000000000001</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>1.0609999999999999</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>0.57699999999999996</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <v>0.36053000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+      <c r="A10" s="9">
         <v>1000000</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>2.4969999999999999</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>1.38</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>0.75339999999999996</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <v>0.44840000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+      <c r="A11" s="9">
         <v>1500000</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>3.88</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>2.0720000000000001</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>1.1081000000000001</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <v>0.67710000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+      <c r="A12" s="9">
         <v>5000000</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>9.7200000000000006</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>4.8899999999999997</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>2.6339999999999999</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <v>1.7809999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+      <c r="A13" s="9">
         <v>10000000</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>17.8</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>9.2110000000000003</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>3.9119999999999999</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <v>2.9740000000000002</v>
       </c>
     </row>
@@ -6409,4 +7844,248 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5183DCCA-E45A-41F3-8AA1-1BDF0BDC2E29}">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="5"/>
+      <c r="B1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="9">
+        <v>500</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A4" s="9">
+        <v>1000</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2.0339999999999998</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="9">
+        <v>1500</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2.972</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.9370000000000001</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.64600000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="9">
+        <v>2000</v>
+      </c>
+      <c r="B6" s="5">
+        <v>4.2549999999999999</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.2919999999999998</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1.224</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="9">
+        <v>2500</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5.8289999999999997</v>
+      </c>
+      <c r="C7" s="5">
+        <v>3.1019999999999999</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1.665</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.98099999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="9">
+        <v>3000</v>
+      </c>
+      <c r="B8" s="5">
+        <v>6.3849999999999998</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4.4020000000000001</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.923</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="9">
+        <v>3500</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7.923</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4.3230000000000004</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.3490000000000002</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.3740000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>4000</v>
+      </c>
+      <c r="B10" s="5">
+        <v>8.6880000000000006</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4.6619999999999999</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.7759999999999998</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1.716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="9">
+        <v>4500</v>
+      </c>
+      <c r="B11" s="5">
+        <v>9.6639999999999997</v>
+      </c>
+      <c r="C11" s="5">
+        <v>4.9960000000000004</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2.6819999999999999</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.0419999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="9">
+        <v>5000</v>
+      </c>
+      <c r="B12" s="5">
+        <v>10.981999999999999</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6.1020000000000003</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3.3679999999999999</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2.0453000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="21" spans="7:13" ht="21" x14ac:dyDescent="0.35">
+      <c r="G21" s="12"/>
+      <c r="H21" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H21:M21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>